--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Ang-Plxnb2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Ang-Plxnb2.xlsx
@@ -537,22 +537,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.1614856666666667</v>
+        <v>0.9885959999999999</v>
       </c>
       <c r="H2">
-        <v>0.484457</v>
+        <v>2.965788</v>
       </c>
       <c r="I2">
-        <v>0.002359553325402517</v>
+        <v>0.015133437087961</v>
       </c>
       <c r="J2">
-        <v>0.002359553325402517</v>
+        <v>0.015133437087961</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>7.644991666666666</v>
+        <v>12.046506</v>
       </c>
       <c r="N2">
-        <v>22.934975</v>
+        <v>36.139518</v>
       </c>
       <c r="O2">
-        <v>0.03901494211481031</v>
+        <v>0.06409289449370618</v>
       </c>
       <c r="P2">
-        <v>0.0390149421148103</v>
+        <v>0.06409289449370618</v>
       </c>
       <c r="Q2">
-        <v>1.234556575952778</v>
+        <v>11.909127645576</v>
       </c>
       <c r="R2">
-        <v>11.111009183575</v>
+        <v>107.182148810184</v>
       </c>
       <c r="S2">
-        <v>9.205783640738739E-05</v>
+        <v>0.0009699457866058247</v>
       </c>
       <c r="T2">
-        <v>9.205783640738738E-05</v>
+        <v>0.0009699457866058247</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,22 +599,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.1614856666666667</v>
+        <v>0.9885959999999999</v>
       </c>
       <c r="H3">
-        <v>0.484457</v>
+        <v>2.965788</v>
       </c>
       <c r="I3">
-        <v>0.002359553325402517</v>
+        <v>0.015133437087961</v>
       </c>
       <c r="J3">
-        <v>0.002359553325402517</v>
+        <v>0.015133437087961</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>112.478866</v>
       </c>
       <c r="O3">
-        <v>0.1913390551386913</v>
+        <v>0.199479586067244</v>
       </c>
       <c r="P3">
-        <v>0.1913390551386912</v>
+        <v>0.199479586067244</v>
       </c>
       <c r="Q3">
-        <v>6.054574887306889</v>
+        <v>37.065385670712</v>
       </c>
       <c r="R3">
-        <v>54.491173985762</v>
+        <v>333.588471036408</v>
       </c>
       <c r="S3">
-        <v>0.0004514747038318746</v>
+        <v>0.00301881176608114</v>
       </c>
       <c r="T3">
-        <v>0.0004514747038318745</v>
+        <v>0.00301881176608114</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,22 +661,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.1614856666666667</v>
+        <v>0.9885959999999999</v>
       </c>
       <c r="H4">
-        <v>0.484457</v>
+        <v>2.965788</v>
       </c>
       <c r="I4">
-        <v>0.002359553325402517</v>
+        <v>0.015133437087961</v>
       </c>
       <c r="J4">
-        <v>0.002359553325402517</v>
+        <v>0.015133437087961</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>58.61130133333333</v>
+        <v>53.23753466666667</v>
       </c>
       <c r="N4">
-        <v>175.833904</v>
+        <v>159.712604</v>
       </c>
       <c r="O4">
-        <v>0.2991130178420126</v>
+        <v>0.2832479137515634</v>
       </c>
       <c r="P4">
-        <v>0.2991130178420126</v>
+        <v>0.2832479137515634</v>
       </c>
       <c r="Q4">
-        <v>9.464885070014221</v>
+        <v>52.630413821328</v>
       </c>
       <c r="R4">
-        <v>85.18396563012799</v>
+        <v>473.673724391952</v>
       </c>
       <c r="S4">
-        <v>0.0007057731159203033</v>
+        <v>0.00428651448305549</v>
       </c>
       <c r="T4">
-        <v>0.0007057731159203032</v>
+        <v>0.00428651448305549</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,22 +723,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.1614856666666667</v>
+        <v>0.9885959999999999</v>
       </c>
       <c r="H5">
-        <v>0.484457</v>
+        <v>2.965788</v>
       </c>
       <c r="I5">
-        <v>0.002359553325402517</v>
+        <v>0.015133437087961</v>
       </c>
       <c r="J5">
-        <v>0.002359553325402517</v>
+        <v>0.015133437087961</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>20.463909</v>
+        <v>15.283152</v>
       </c>
       <c r="N5">
-        <v>61.391727</v>
+        <v>45.849456</v>
       </c>
       <c r="O5">
-        <v>0.1044341524345781</v>
+        <v>0.08131332426740788</v>
       </c>
       <c r="P5">
-        <v>0.1044341524345781</v>
+        <v>0.08131332426740788</v>
       </c>
       <c r="Q5">
-        <v>3.304627987471</v>
+        <v>15.108862934592</v>
       </c>
       <c r="R5">
-        <v>29.741651887239</v>
+        <v>135.979766411328</v>
       </c>
       <c r="S5">
-        <v>0.0002464179516626021</v>
+        <v>0.00123055007721379</v>
       </c>
       <c r="T5">
-        <v>0.0002464179516626021</v>
+        <v>0.00123055007721379</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,22 +785,22 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.1614856666666667</v>
+        <v>0.9885959999999999</v>
       </c>
       <c r="H6">
-        <v>0.484457</v>
+        <v>2.965788</v>
       </c>
       <c r="I6">
-        <v>0.002359553325402517</v>
+        <v>0.015133437087961</v>
       </c>
       <c r="J6">
-        <v>0.002359553325402517</v>
+        <v>0.015133437087961</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>11.76466866666667</v>
+        <v>10.028695</v>
       </c>
       <c r="N6">
-        <v>35.294006</v>
+        <v>30.086085</v>
       </c>
       <c r="O6">
-        <v>0.06003902777699856</v>
+        <v>0.05335722163294142</v>
       </c>
       <c r="P6">
-        <v>0.06003902777699856</v>
+        <v>0.05335722163294142</v>
       </c>
       <c r="Q6">
-        <v>1.899825362749111</v>
+        <v>9.914327762219999</v>
       </c>
       <c r="R6">
-        <v>17.098428264742</v>
+        <v>89.22894985997999</v>
       </c>
       <c r="S6">
-        <v>0.0001416652876451511</v>
+        <v>0.0008074781567705109</v>
       </c>
       <c r="T6">
-        <v>0.000141665287645151</v>
+        <v>0.0008074781567705109</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,22 +847,22 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0.1614856666666667</v>
+        <v>0.9885959999999999</v>
       </c>
       <c r="H7">
-        <v>0.484457</v>
+        <v>2.965788</v>
       </c>
       <c r="I7">
-        <v>0.002359553325402517</v>
+        <v>0.015133437087961</v>
       </c>
       <c r="J7">
-        <v>0.002359553325402517</v>
+        <v>0.015133437087961</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>59.97252666666667</v>
+        <v>59.86500266666667</v>
       </c>
       <c r="N7">
-        <v>179.91758</v>
+        <v>179.595008</v>
       </c>
       <c r="O7">
-        <v>0.3060598046929092</v>
+        <v>0.3185090597871371</v>
       </c>
       <c r="P7">
-        <v>0.3060598046929091</v>
+        <v>0.3185090597871371</v>
       </c>
       <c r="Q7">
-        <v>9.684703450451112</v>
+        <v>59.18230217625599</v>
       </c>
       <c r="R7">
-        <v>87.16233105406</v>
+        <v>532.640719586304</v>
       </c>
       <c r="S7">
-        <v>0.0007221644299351988</v>
+        <v>0.004820136818234249</v>
       </c>
       <c r="T7">
-        <v>0.0007221644299351986</v>
+        <v>0.004820136818234249</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>34.738041</v>
       </c>
       <c r="I8">
-        <v>0.169192023563534</v>
+        <v>0.1772567553825526</v>
       </c>
       <c r="J8">
-        <v>0.169192023563534</v>
+        <v>0.1772567553825526</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>7.644991666666666</v>
+        <v>12.046506</v>
       </c>
       <c r="N8">
-        <v>22.934975</v>
+        <v>36.139518</v>
       </c>
       <c r="O8">
-        <v>0.03901494211481031</v>
+        <v>0.06409289449370618</v>
       </c>
       <c r="P8">
-        <v>0.0390149421148103</v>
+        <v>0.06409289449370618</v>
       </c>
       <c r="Q8">
-        <v>88.52401132044166</v>
+        <v>139.490673111582</v>
       </c>
       <c r="R8">
-        <v>796.7161018839749</v>
+        <v>1255.416058004238</v>
       </c>
       <c r="S8">
-        <v>0.006601017005618902</v>
+        <v>0.01136089852103063</v>
       </c>
       <c r="T8">
-        <v>0.0066010170056189</v>
+        <v>0.01136089852103063</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>34.738041</v>
       </c>
       <c r="I9">
-        <v>0.169192023563534</v>
+        <v>0.1772567553825526</v>
       </c>
       <c r="J9">
-        <v>0.169192023563534</v>
+        <v>0.1772567553825526</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>112.478866</v>
       </c>
       <c r="O9">
-        <v>0.1913390551386913</v>
+        <v>0.199479586067244</v>
       </c>
       <c r="P9">
-        <v>0.1913390551386912</v>
+        <v>0.199479586067244</v>
       </c>
       <c r="Q9">
         <v>434.1439398601673</v>
@@ -1013,10 +1013,10 @@
         <v>3907.295458741506</v>
       </c>
       <c r="S9">
-        <v>0.03237304192564978</v>
+        <v>0.03535910419133433</v>
       </c>
       <c r="T9">
-        <v>0.03237304192564978</v>
+        <v>0.03535910419133433</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>34.738041</v>
       </c>
       <c r="I10">
-        <v>0.169192023563534</v>
+        <v>0.1772567553825526</v>
       </c>
       <c r="J10">
-        <v>0.169192023563534</v>
+        <v>0.1772567553825526</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>58.61130133333333</v>
+        <v>53.23753466666667</v>
       </c>
       <c r="N10">
-        <v>175.833904</v>
+        <v>159.712604</v>
       </c>
       <c r="O10">
-        <v>0.2991130178420126</v>
+        <v>0.2832479137515634</v>
       </c>
       <c r="P10">
-        <v>0.2991130178420126</v>
+        <v>0.2832479137515634</v>
       </c>
       <c r="Q10">
-        <v>678.6805962602293</v>
+        <v>616.4558873298627</v>
       </c>
       <c r="R10">
-        <v>6108.125366342064</v>
+        <v>5548.102985968764</v>
       </c>
       <c r="S10">
-        <v>0.05060753676288557</v>
+        <v>0.05020760616047924</v>
       </c>
       <c r="T10">
-        <v>0.05060753676288555</v>
+        <v>0.05020760616047924</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>34.738041</v>
       </c>
       <c r="I11">
-        <v>0.169192023563534</v>
+        <v>0.1772567553825526</v>
       </c>
       <c r="J11">
-        <v>0.169192023563534</v>
+        <v>0.1772567553825526</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>20.463909</v>
+        <v>15.283152</v>
       </c>
       <c r="N11">
-        <v>61.391727</v>
+        <v>45.849456</v>
       </c>
       <c r="O11">
-        <v>0.1044341524345781</v>
+        <v>0.08131332426740788</v>
       </c>
       <c r="P11">
-        <v>0.1044341524345781</v>
+        <v>0.08131332426740788</v>
       </c>
       <c r="Q11">
-        <v>236.958703287423</v>
+        <v>176.968920261744</v>
       </c>
       <c r="R11">
-        <v>2132.628329586807</v>
+        <v>1592.720282355696</v>
       </c>
       <c r="S11">
-        <v>0.01766942557954884</v>
+        <v>0.0144133360290101</v>
       </c>
       <c r="T11">
-        <v>0.01766942557954884</v>
+        <v>0.0144133360290101</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>34.738041</v>
       </c>
       <c r="I12">
-        <v>0.169192023563534</v>
+        <v>0.1772567553825526</v>
       </c>
       <c r="J12">
-        <v>0.169192023563534</v>
+        <v>0.1772567553825526</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>11.76466866666667</v>
+        <v>10.028695</v>
       </c>
       <c r="N12">
-        <v>35.294006</v>
+        <v>30.086085</v>
       </c>
       <c r="O12">
-        <v>0.06003902777699856</v>
+        <v>0.05335722163294142</v>
       </c>
       <c r="P12">
-        <v>0.06003902777699856</v>
+        <v>0.05335722163294142</v>
       </c>
       <c r="Q12">
-        <v>136.2271808313606</v>
+        <v>116.125739362165</v>
       </c>
       <c r="R12">
-        <v>1226.044627482246</v>
+        <v>1045.131654259485</v>
       </c>
       <c r="S12">
-        <v>0.01015812460237761</v>
+        <v>0.009457927982882943</v>
       </c>
       <c r="T12">
-        <v>0.01015812460237761</v>
+        <v>0.009457927982882943</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>34.738041</v>
       </c>
       <c r="I13">
-        <v>0.169192023563534</v>
+        <v>0.1772567553825526</v>
       </c>
       <c r="J13">
-        <v>0.169192023563534</v>
+        <v>0.1772567553825526</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>59.97252666666667</v>
+        <v>59.86500266666667</v>
       </c>
       <c r="N13">
-        <v>179.91758</v>
+        <v>179.595008</v>
       </c>
       <c r="O13">
-        <v>0.3060598046929092</v>
+        <v>0.3185090597871371</v>
       </c>
       <c r="P13">
-        <v>0.3060598046929091</v>
+        <v>0.3185090597871371</v>
       </c>
       <c r="Q13">
-        <v>694.4426967400867</v>
+        <v>693.1976390332587</v>
       </c>
       <c r="R13">
-        <v>6249.984270660781</v>
+        <v>6238.778751299329</v>
       </c>
       <c r="S13">
-        <v>0.05178287768745331</v>
+        <v>0.05645788249781538</v>
       </c>
       <c r="T13">
-        <v>0.05178287768745329</v>
+        <v>0.05645788249781538</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>19.499363</v>
+        <v>18.97940633333333</v>
       </c>
       <c r="H14">
-        <v>58.498089</v>
+        <v>56.938219</v>
       </c>
       <c r="I14">
-        <v>0.2849156074319133</v>
+        <v>0.2905369349181552</v>
       </c>
       <c r="J14">
-        <v>0.2849156074319133</v>
+        <v>0.2905369349181552</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>7.644991666666666</v>
+        <v>12.046506</v>
       </c>
       <c r="N14">
-        <v>22.934975</v>
+        <v>36.139518</v>
       </c>
       <c r="O14">
-        <v>0.03901494211481031</v>
+        <v>0.06409289449370618</v>
       </c>
       <c r="P14">
-        <v>0.0390149421148103</v>
+        <v>0.06409289449370618</v>
       </c>
       <c r="Q14">
-        <v>149.0724676403083</v>
+        <v>228.635532270938</v>
       </c>
       <c r="R14">
-        <v>1341.652208762775</v>
+        <v>2057.719790438442</v>
       </c>
       <c r="S14">
-        <v>0.01111596593156212</v>
+        <v>0.01862135311623411</v>
       </c>
       <c r="T14">
-        <v>0.01111596593156211</v>
+        <v>0.01862135311623411</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>19.499363</v>
+        <v>18.97940633333333</v>
       </c>
       <c r="H15">
-        <v>58.498089</v>
+        <v>56.938219</v>
       </c>
       <c r="I15">
-        <v>0.2849156074319133</v>
+        <v>0.2905369349181552</v>
       </c>
       <c r="J15">
-        <v>0.2849156074319133</v>
+        <v>0.2905369349181552</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>112.478866</v>
       </c>
       <c r="O15">
-        <v>0.1913390551386913</v>
+        <v>0.199479586067244</v>
       </c>
       <c r="P15">
-        <v>0.1913390551386912</v>
+        <v>0.199479586067244</v>
       </c>
       <c r="Q15">
-        <v>731.0887459874526</v>
+        <v>711.5940339088505</v>
       </c>
       <c r="R15">
-        <v>6579.798713887074</v>
+        <v>6404.346305179653</v>
       </c>
       <c r="S15">
-        <v>0.05451548312028857</v>
+        <v>0.05795618751471943</v>
       </c>
       <c r="T15">
-        <v>0.05451548312028857</v>
+        <v>0.05795618751471943</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>19.499363</v>
+        <v>18.97940633333333</v>
       </c>
       <c r="H16">
-        <v>58.498089</v>
+        <v>56.938219</v>
       </c>
       <c r="I16">
-        <v>0.2849156074319133</v>
+        <v>0.2905369349181552</v>
       </c>
       <c r="J16">
-        <v>0.2849156074319133</v>
+        <v>0.2905369349181552</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>58.61130133333333</v>
+        <v>53.23753466666667</v>
       </c>
       <c r="N16">
-        <v>175.833904</v>
+        <v>159.712604</v>
       </c>
       <c r="O16">
-        <v>0.2991130178420126</v>
+        <v>0.2832479137515634</v>
       </c>
       <c r="P16">
-        <v>0.2991130178420126</v>
+        <v>0.2832479137515634</v>
       </c>
       <c r="Q16">
-        <v>1142.88304060105</v>
+        <v>1010.416802623586</v>
       </c>
       <c r="R16">
-        <v>10285.94736540946</v>
+        <v>9093.751223612275</v>
       </c>
       <c r="S16">
-        <v>0.08522196716924975</v>
+        <v>0.08229398068334123</v>
       </c>
       <c r="T16">
-        <v>0.08522196716924972</v>
+        <v>0.08229398068334123</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>19.499363</v>
+        <v>18.97940633333333</v>
       </c>
       <c r="H17">
-        <v>58.498089</v>
+        <v>56.938219</v>
       </c>
       <c r="I17">
-        <v>0.2849156074319133</v>
+        <v>0.2905369349181552</v>
       </c>
       <c r="J17">
-        <v>0.2849156074319133</v>
+        <v>0.2905369349181552</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>20.463909</v>
+        <v>15.283152</v>
       </c>
       <c r="N17">
-        <v>61.391727</v>
+        <v>45.849456</v>
       </c>
       <c r="O17">
-        <v>0.1044341524345781</v>
+        <v>0.08131332426740788</v>
       </c>
       <c r="P17">
-        <v>0.1044341524345781</v>
+        <v>0.08131332426740788</v>
       </c>
       <c r="Q17">
-        <v>399.033189989967</v>
+        <v>290.065151862096</v>
       </c>
       <c r="R17">
-        <v>3591.298709909703</v>
+        <v>2610.586366758864</v>
       </c>
       <c r="S17">
-        <v>0.02975491997753484</v>
+        <v>0.02362452400065874</v>
       </c>
       <c r="T17">
-        <v>0.02975491997753484</v>
+        <v>0.02362452400065874</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>19.499363</v>
+        <v>18.97940633333333</v>
       </c>
       <c r="H18">
-        <v>58.498089</v>
+        <v>56.938219</v>
       </c>
       <c r="I18">
-        <v>0.2849156074319133</v>
+        <v>0.2905369349181552</v>
       </c>
       <c r="J18">
-        <v>0.2849156074319133</v>
+        <v>0.2905369349181552</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>11.76466866666667</v>
+        <v>10.028695</v>
       </c>
       <c r="N18">
-        <v>35.294006</v>
+        <v>30.086085</v>
       </c>
       <c r="O18">
-        <v>0.06003902777699856</v>
+        <v>0.05335722163294142</v>
       </c>
       <c r="P18">
-        <v>0.06003902777699856</v>
+        <v>0.05335722163294142</v>
       </c>
       <c r="Q18">
-        <v>229.4035449060593</v>
+        <v>190.3386773980683</v>
       </c>
       <c r="R18">
-        <v>2064.631904154534</v>
+        <v>1713.048096582615</v>
       </c>
       <c r="S18">
-        <v>0.01710605606870506</v>
+        <v>0.01550224362898349</v>
       </c>
       <c r="T18">
-        <v>0.01710605606870506</v>
+        <v>0.01550224362898349</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>19.499363</v>
+        <v>18.97940633333333</v>
       </c>
       <c r="H19">
-        <v>58.498089</v>
+        <v>56.938219</v>
       </c>
       <c r="I19">
-        <v>0.2849156074319133</v>
+        <v>0.2905369349181552</v>
       </c>
       <c r="J19">
-        <v>0.2849156074319133</v>
+        <v>0.2905369349181552</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>59.97252666666667</v>
+        <v>59.86500266666667</v>
       </c>
       <c r="N19">
-        <v>179.91758</v>
+        <v>179.595008</v>
       </c>
       <c r="O19">
-        <v>0.3060598046929092</v>
+        <v>0.3185090597871371</v>
       </c>
       <c r="P19">
-        <v>0.3060598046929091</v>
+        <v>0.3185090597871371</v>
       </c>
       <c r="Q19">
-        <v>1169.426067500513</v>
+        <v>1136.20221075675</v>
       </c>
       <c r="R19">
-        <v>10524.83460750462</v>
+        <v>10225.81989681075</v>
       </c>
       <c r="S19">
-        <v>0.08720121516457296</v>
+        <v>0.09253864597421826</v>
       </c>
       <c r="T19">
-        <v>0.08720121516457295</v>
+        <v>0.09253864597421826</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>1.199413666666667</v>
+        <v>0.7361646666666667</v>
       </c>
       <c r="H20">
-        <v>3.598241</v>
+        <v>2.208494</v>
       </c>
       <c r="I20">
-        <v>0.01752527369229814</v>
+        <v>0.01126921580643638</v>
       </c>
       <c r="J20">
-        <v>0.01752527369229814</v>
+        <v>0.01126921580643638</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>7.644991666666666</v>
+        <v>12.046506</v>
       </c>
       <c r="N20">
-        <v>22.934975</v>
+        <v>36.139518</v>
       </c>
       <c r="O20">
-        <v>0.03901494211481031</v>
+        <v>0.06409289449370618</v>
       </c>
       <c r="P20">
-        <v>0.0390149421148103</v>
+        <v>0.06409289449370618</v>
       </c>
       <c r="Q20">
-        <v>9.169507486552778</v>
+        <v>8.868212073988001</v>
       </c>
       <c r="R20">
-        <v>82.525567378975</v>
+        <v>79.813908665892</v>
       </c>
       <c r="S20">
-        <v>0.00068374753865122</v>
+        <v>0.0007222766597087332</v>
       </c>
       <c r="T20">
-        <v>0.0006837475386512197</v>
+        <v>0.0007222766597087332</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>1.199413666666667</v>
+        <v>0.7361646666666667</v>
       </c>
       <c r="H21">
-        <v>3.598241</v>
+        <v>2.208494</v>
       </c>
       <c r="I21">
-        <v>0.01752527369229814</v>
+        <v>0.01126921580643638</v>
       </c>
       <c r="J21">
-        <v>0.01752527369229814</v>
+        <v>0.01126921580643638</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>112.478866</v>
       </c>
       <c r="O21">
-        <v>0.1913390551386913</v>
+        <v>0.199479586067244</v>
       </c>
       <c r="P21">
-        <v>0.1913390551386912</v>
+        <v>0.199479586067244</v>
       </c>
       <c r="Q21">
-        <v>44.9695630305229</v>
+        <v>27.60098896531156</v>
       </c>
       <c r="R21">
-        <v>404.726067274706</v>
+        <v>248.408900687804</v>
       </c>
       <c r="S21">
-        <v>0.00335326930933129</v>
+        <v>0.002247978504370373</v>
       </c>
       <c r="T21">
-        <v>0.003353269309331289</v>
+        <v>0.002247978504370373</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>1.199413666666667</v>
+        <v>0.7361646666666667</v>
       </c>
       <c r="H22">
-        <v>3.598241</v>
+        <v>2.208494</v>
       </c>
       <c r="I22">
-        <v>0.01752527369229814</v>
+        <v>0.01126921580643638</v>
       </c>
       <c r="J22">
-        <v>0.01752527369229814</v>
+        <v>0.01126921580643638</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>58.61130133333333</v>
+        <v>53.23753466666667</v>
       </c>
       <c r="N22">
-        <v>175.833904</v>
+        <v>159.712604</v>
       </c>
       <c r="O22">
-        <v>0.2991130178420126</v>
+        <v>0.2832479137515634</v>
       </c>
       <c r="P22">
-        <v>0.2991130178420126</v>
+        <v>0.2832479137515634</v>
       </c>
       <c r="Q22">
-        <v>70.29919584031823</v>
+        <v>39.19159196204178</v>
       </c>
       <c r="R22">
-        <v>632.692762562864</v>
+        <v>352.724327658376</v>
       </c>
       <c r="S22">
-        <v>0.005242037502610528</v>
+        <v>0.003191981866789248</v>
       </c>
       <c r="T22">
-        <v>0.005242037502610527</v>
+        <v>0.003191981866789248</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>1.199413666666667</v>
+        <v>0.7361646666666667</v>
       </c>
       <c r="H23">
-        <v>3.598241</v>
+        <v>2.208494</v>
       </c>
       <c r="I23">
-        <v>0.01752527369229814</v>
+        <v>0.01126921580643638</v>
       </c>
       <c r="J23">
-        <v>0.01752527369229814</v>
+        <v>0.01126921580643638</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>20.463909</v>
+        <v>15.283152</v>
       </c>
       <c r="N23">
-        <v>61.391727</v>
+        <v>45.849456</v>
       </c>
       <c r="O23">
-        <v>0.1044341524345781</v>
+        <v>0.08131332426740788</v>
       </c>
       <c r="P23">
-        <v>0.1044341524345781</v>
+        <v>0.08131332426740788</v>
       </c>
       <c r="Q23">
-        <v>24.54469212802301</v>
+        <v>11.250916497696</v>
       </c>
       <c r="R23">
-        <v>220.902229152207</v>
+        <v>101.258248479264</v>
       </c>
       <c r="S23">
-        <v>0.001830237104239165</v>
+        <v>0.0009163373991081601</v>
       </c>
       <c r="T23">
-        <v>0.001830237104239165</v>
+        <v>0.0009163373991081601</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>1.199413666666667</v>
+        <v>0.7361646666666667</v>
       </c>
       <c r="H24">
-        <v>3.598241</v>
+        <v>2.208494</v>
       </c>
       <c r="I24">
-        <v>0.01752527369229814</v>
+        <v>0.01126921580643638</v>
       </c>
       <c r="J24">
-        <v>0.01752527369229814</v>
+        <v>0.01126921580643638</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>11.76466866666667</v>
+        <v>10.028695</v>
       </c>
       <c r="N24">
-        <v>35.294006</v>
+        <v>30.086085</v>
       </c>
       <c r="O24">
-        <v>0.06003902777699856</v>
+        <v>0.05335722163294142</v>
       </c>
       <c r="P24">
-        <v>0.06003902777699856</v>
+        <v>0.05335722163294142</v>
       </c>
       <c r="Q24">
-        <v>14.11070438260511</v>
+        <v>7.382770911776667</v>
       </c>
       <c r="R24">
-        <v>126.996339443446</v>
+        <v>66.44493820599</v>
       </c>
       <c r="S24">
-        <v>0.00105220039401139</v>
+        <v>0.0006012940454134728</v>
       </c>
       <c r="T24">
-        <v>0.00105220039401139</v>
+        <v>0.0006012940454134728</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>1.199413666666667</v>
+        <v>0.7361646666666667</v>
       </c>
       <c r="H25">
-        <v>3.598241</v>
+        <v>2.208494</v>
       </c>
       <c r="I25">
-        <v>0.01752527369229814</v>
+        <v>0.01126921580643638</v>
       </c>
       <c r="J25">
-        <v>0.01752527369229814</v>
+        <v>0.01126921580643638</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>59.97252666666667</v>
+        <v>59.86500266666667</v>
       </c>
       <c r="N25">
-        <v>179.91758</v>
+        <v>179.595008</v>
       </c>
       <c r="O25">
-        <v>0.3060598046929092</v>
+        <v>0.3185090597871371</v>
       </c>
       <c r="P25">
-        <v>0.3060598046929091</v>
+        <v>0.3185090597871371</v>
       </c>
       <c r="Q25">
-        <v>71.93186810853113</v>
+        <v>44.07049973310578</v>
       </c>
       <c r="R25">
-        <v>647.3868129767801</v>
+        <v>396.634497597952</v>
       </c>
       <c r="S25">
-        <v>0.005363781843454549</v>
+        <v>0.003589347331046396</v>
       </c>
       <c r="T25">
-        <v>0.005363781843454546</v>
+        <v>0.003589347331046396</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>6.911855333333333</v>
+        <v>5.938665333333333</v>
       </c>
       <c r="H26">
-        <v>20.735566</v>
+        <v>17.815996</v>
       </c>
       <c r="I26">
-        <v>0.1009928099075942</v>
+        <v>0.09090914611070139</v>
       </c>
       <c r="J26">
-        <v>0.1009928099075942</v>
+        <v>0.09090914611070139</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>7.644991666666666</v>
+        <v>12.046506</v>
       </c>
       <c r="N26">
-        <v>22.934975</v>
+        <v>36.139518</v>
       </c>
       <c r="O26">
-        <v>0.03901494211481031</v>
+        <v>0.06409289449370618</v>
       </c>
       <c r="P26">
-        <v>0.0390149421148103</v>
+        <v>0.06409289449370618</v>
       </c>
       <c r="Q26">
-        <v>52.84107642453888</v>
+        <v>71.54016756999199</v>
       </c>
       <c r="R26">
-        <v>475.5696878208499</v>
+        <v>643.861508129928</v>
       </c>
       <c r="S26">
-        <v>0.00394022863255683</v>
+        <v>0.005826630310186104</v>
       </c>
       <c r="T26">
-        <v>0.003940228632556829</v>
+        <v>0.005826630310186104</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>6.911855333333333</v>
+        <v>5.938665333333333</v>
       </c>
       <c r="H27">
-        <v>20.735566</v>
+        <v>17.815996</v>
       </c>
       <c r="I27">
-        <v>0.1009928099075942</v>
+        <v>0.09090914611070139</v>
       </c>
       <c r="J27">
-        <v>0.1009928099075942</v>
+        <v>0.09090914611070139</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>112.478866</v>
       </c>
       <c r="O27">
-        <v>0.1913390551386913</v>
+        <v>0.199479586067244</v>
       </c>
       <c r="P27">
-        <v>0.1913390551386912</v>
+        <v>0.199479586067244</v>
       </c>
       <c r="Q27">
-        <v>259.1458832831284</v>
+        <v>222.6581140822818</v>
       </c>
       <c r="R27">
-        <v>2332.312949548156</v>
+        <v>2003.923026740536</v>
       </c>
       <c r="S27">
-        <v>0.01932386882352054</v>
+        <v>0.01813451883588932</v>
       </c>
       <c r="T27">
-        <v>0.01932386882352053</v>
+        <v>0.01813451883588932</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>6.911855333333333</v>
+        <v>5.938665333333333</v>
       </c>
       <c r="H28">
-        <v>20.735566</v>
+        <v>17.815996</v>
       </c>
       <c r="I28">
-        <v>0.1009928099075942</v>
+        <v>0.09090914611070139</v>
       </c>
       <c r="J28">
-        <v>0.1009928099075942</v>
+        <v>0.09090914611070139</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>58.61130133333333</v>
+        <v>53.23753466666667</v>
       </c>
       <c r="N28">
-        <v>175.833904</v>
+        <v>159.712604</v>
       </c>
       <c r="O28">
-        <v>0.2991130178420126</v>
+        <v>0.2832479137515634</v>
       </c>
       <c r="P28">
-        <v>0.2991130178420126</v>
+        <v>0.2832479137515634</v>
       </c>
       <c r="Q28">
-        <v>405.112835714407</v>
+        <v>316.1599015570649</v>
       </c>
       <c r="R28">
-        <v>3646.015521429664</v>
+        <v>2845.439114013584</v>
       </c>
       <c r="S28">
-        <v>0.03020826415180522</v>
+        <v>0.02574982597679223</v>
       </c>
       <c r="T28">
-        <v>0.03020826415180521</v>
+        <v>0.02574982597679223</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>6.911855333333333</v>
+        <v>5.938665333333333</v>
       </c>
       <c r="H29">
-        <v>20.735566</v>
+        <v>17.815996</v>
       </c>
       <c r="I29">
-        <v>0.1009928099075942</v>
+        <v>0.09090914611070139</v>
       </c>
       <c r="J29">
-        <v>0.1009928099075942</v>
+        <v>0.09090914611070139</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>20.463909</v>
+        <v>15.283152</v>
       </c>
       <c r="N29">
-        <v>61.391727</v>
+        <v>45.849456</v>
       </c>
       <c r="O29">
-        <v>0.1044341524345781</v>
+        <v>0.08131332426740788</v>
       </c>
       <c r="P29">
-        <v>0.1044341524345781</v>
+        <v>0.08131332426740788</v>
       </c>
       <c r="Q29">
-        <v>141.443578562498</v>
+        <v>90.76152496646399</v>
       </c>
       <c r="R29">
-        <v>1272.992207062482</v>
+        <v>816.8537246981759</v>
       </c>
       <c r="S29">
-        <v>0.01054709850468606</v>
+        <v>0.007392124876572624</v>
       </c>
       <c r="T29">
-        <v>0.01054709850468606</v>
+        <v>0.007392124876572624</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>6.911855333333333</v>
+        <v>5.938665333333333</v>
       </c>
       <c r="H30">
-        <v>20.735566</v>
+        <v>17.815996</v>
       </c>
       <c r="I30">
-        <v>0.1009928099075942</v>
+        <v>0.09090914611070139</v>
       </c>
       <c r="J30">
-        <v>0.1009928099075942</v>
+        <v>0.09090914611070139</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>11.76466866666667</v>
+        <v>10.028695</v>
       </c>
       <c r="N30">
-        <v>35.294006</v>
+        <v>30.086085</v>
       </c>
       <c r="O30">
-        <v>0.06003902777699856</v>
+        <v>0.05335722163294142</v>
       </c>
       <c r="P30">
-        <v>0.06003902777699856</v>
+        <v>0.05335722163294142</v>
       </c>
       <c r="Q30">
-        <v>81.31568786859954</v>
+        <v>59.55706333507333</v>
       </c>
       <c r="R30">
-        <v>731.8411908173958</v>
+        <v>536.01357001566</v>
       </c>
       <c r="S30">
-        <v>0.006063510119319186</v>
+        <v>0.004850659457490149</v>
       </c>
       <c r="T30">
-        <v>0.006063510119319184</v>
+        <v>0.004850659457490149</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>6.911855333333333</v>
+        <v>5.938665333333333</v>
       </c>
       <c r="H31">
-        <v>20.735566</v>
+        <v>17.815996</v>
       </c>
       <c r="I31">
-        <v>0.1009928099075942</v>
+        <v>0.09090914611070139</v>
       </c>
       <c r="J31">
-        <v>0.1009928099075942</v>
+        <v>0.09090914611070139</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>59.97252666666667</v>
+        <v>59.86500266666667</v>
       </c>
       <c r="N31">
-        <v>179.91758</v>
+        <v>179.595008</v>
       </c>
       <c r="O31">
-        <v>0.3060598046929092</v>
+        <v>0.3185090597871371</v>
       </c>
       <c r="P31">
-        <v>0.3060598046929091</v>
+        <v>0.3185090597871371</v>
       </c>
       <c r="Q31">
-        <v>414.5214282944756</v>
+        <v>355.5182160164409</v>
       </c>
       <c r="R31">
-        <v>3730.69285465028</v>
+        <v>3199.663944147968</v>
       </c>
       <c r="S31">
-        <v>0.03090983967570639</v>
+        <v>0.02895538665377097</v>
       </c>
       <c r="T31">
-        <v>0.03090983967570638</v>
+        <v>0.02895538665377097</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>29.08761866666667</v>
+        <v>27.10309966666667</v>
       </c>
       <c r="H32">
-        <v>87.262856</v>
+        <v>81.309299</v>
       </c>
       <c r="I32">
-        <v>0.4250147320792579</v>
+        <v>0.4148945106941934</v>
       </c>
       <c r="J32">
-        <v>0.4250147320792578</v>
+        <v>0.4148945106941934</v>
       </c>
       <c r="K32">
         <v>3</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>7.644991666666666</v>
+        <v>12.046506</v>
       </c>
       <c r="N32">
-        <v>22.934975</v>
+        <v>36.139518</v>
       </c>
       <c r="O32">
-        <v>0.03901494211481031</v>
+        <v>0.06409289449370618</v>
       </c>
       <c r="P32">
-        <v>0.0390149421148103</v>
+        <v>0.06409289449370618</v>
       </c>
       <c r="Q32">
-        <v>222.3746023098444</v>
+        <v>326.497652753098</v>
       </c>
       <c r="R32">
-        <v>2001.3714207886</v>
+        <v>2938.478874777882</v>
       </c>
       <c r="S32">
-        <v>0.01658192517001386</v>
+        <v>0.02659179009994079</v>
       </c>
       <c r="T32">
-        <v>0.01658192517001385</v>
+        <v>0.02659179009994079</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>29.08761866666667</v>
+        <v>27.10309966666667</v>
       </c>
       <c r="H33">
-        <v>87.262856</v>
+        <v>81.309299</v>
       </c>
       <c r="I33">
-        <v>0.4250147320792579</v>
+        <v>0.4148945106941934</v>
       </c>
       <c r="J33">
-        <v>0.4250147320792578</v>
+        <v>0.4148945106941934</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>112.478866</v>
       </c>
       <c r="O33">
-        <v>0.1913390551386913</v>
+        <v>0.199479586067244</v>
       </c>
       <c r="P33">
-        <v>0.1913390551386912</v>
+        <v>0.199479586067244</v>
       </c>
       <c r="Q33">
-        <v>1090.580787422366</v>
+        <v>1016.175305197215</v>
       </c>
       <c r="R33">
-        <v>9815.227086801295</v>
+        <v>9145.577746774934</v>
       </c>
       <c r="S33">
-        <v>0.08132191725606921</v>
+        <v>0.08276298525484946</v>
       </c>
       <c r="T33">
-        <v>0.0813219172560692</v>
+        <v>0.08276298525484946</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>29.08761866666667</v>
+        <v>27.10309966666667</v>
       </c>
       <c r="H34">
-        <v>87.262856</v>
+        <v>81.309299</v>
       </c>
       <c r="I34">
-        <v>0.4250147320792579</v>
+        <v>0.4148945106941934</v>
       </c>
       <c r="J34">
-        <v>0.4250147320792578</v>
+        <v>0.4148945106941934</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>58.61130133333333</v>
+        <v>53.23753466666667</v>
       </c>
       <c r="N34">
-        <v>175.833904</v>
+        <v>159.712604</v>
       </c>
       <c r="O34">
-        <v>0.2991130178420126</v>
+        <v>0.2832479137515634</v>
       </c>
       <c r="P34">
-        <v>0.2991130178420126</v>
+        <v>0.2832479137515634</v>
       </c>
       <c r="Q34">
-        <v>1704.863182741092</v>
+        <v>1442.902208078288</v>
       </c>
       <c r="R34">
-        <v>15343.76864466982</v>
+        <v>12986.1198727046</v>
       </c>
       <c r="S34">
-        <v>0.1271274391395413</v>
+        <v>0.117518004581106</v>
       </c>
       <c r="T34">
-        <v>0.1271274391395412</v>
+        <v>0.117518004581106</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>29.08761866666667</v>
+        <v>27.10309966666667</v>
       </c>
       <c r="H35">
-        <v>87.262856</v>
+        <v>81.309299</v>
       </c>
       <c r="I35">
-        <v>0.4250147320792579</v>
+        <v>0.4148945106941934</v>
       </c>
       <c r="J35">
-        <v>0.4250147320792578</v>
+        <v>0.4148945106941934</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>20.463909</v>
+        <v>15.283152</v>
       </c>
       <c r="N35">
-        <v>61.391727</v>
+        <v>45.849456</v>
       </c>
       <c r="O35">
-        <v>0.1044341524345781</v>
+        <v>0.08131332426740788</v>
       </c>
       <c r="P35">
-        <v>0.1044341524345781</v>
+        <v>0.08131332426740788</v>
       </c>
       <c r="Q35">
-        <v>595.246381421368</v>
+        <v>414.220791876816</v>
       </c>
       <c r="R35">
-        <v>5357.217432792312</v>
+        <v>3727.987126891344</v>
       </c>
       <c r="S35">
-        <v>0.04438605331690658</v>
+        <v>0.03373645188484448</v>
       </c>
       <c r="T35">
-        <v>0.04438605331690657</v>
+        <v>0.03373645188484448</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>29.08761866666667</v>
+        <v>27.10309966666667</v>
       </c>
       <c r="H36">
-        <v>87.262856</v>
+        <v>81.309299</v>
       </c>
       <c r="I36">
-        <v>0.4250147320792579</v>
+        <v>0.4148945106941934</v>
       </c>
       <c r="J36">
-        <v>0.4250147320792578</v>
+        <v>0.4148945106941934</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>11.76466866666667</v>
+        <v>10.028695</v>
       </c>
       <c r="N36">
-        <v>35.294006</v>
+        <v>30.086085</v>
       </c>
       <c r="O36">
-        <v>0.06003902777699856</v>
+        <v>0.05335722163294142</v>
       </c>
       <c r="P36">
-        <v>0.06003902777699856</v>
+        <v>0.05335722163294142</v>
       </c>
       <c r="Q36">
-        <v>342.2061959156817</v>
+        <v>271.8087201116017</v>
       </c>
       <c r="R36">
-        <v>3079.855763241136</v>
+        <v>2446.278481004415</v>
       </c>
       <c r="S36">
-        <v>0.02551747130494017</v>
+        <v>0.02213761836140087</v>
       </c>
       <c r="T36">
-        <v>0.02551747130494016</v>
+        <v>0.02213761836140087</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>29.08761866666667</v>
+        <v>27.10309966666667</v>
       </c>
       <c r="H37">
-        <v>87.262856</v>
+        <v>81.309299</v>
       </c>
       <c r="I37">
-        <v>0.4250147320792579</v>
+        <v>0.4148945106941934</v>
       </c>
       <c r="J37">
-        <v>0.4250147320792578</v>
+        <v>0.4148945106941934</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>59.97252666666667</v>
+        <v>59.86500266666667</v>
       </c>
       <c r="N37">
-        <v>179.91758</v>
+        <v>179.595008</v>
       </c>
       <c r="O37">
-        <v>0.3060598046929092</v>
+        <v>0.3185090597871371</v>
       </c>
       <c r="P37">
-        <v>0.3060598046929091</v>
+        <v>0.3185090597871371</v>
       </c>
       <c r="Q37">
-        <v>1744.457986156498</v>
+        <v>1622.527133819932</v>
       </c>
       <c r="R37">
-        <v>15700.12187540848</v>
+        <v>14602.74420437939</v>
       </c>
       <c r="S37">
-        <v>0.1300799258917868</v>
+        <v>0.1321476605120518</v>
       </c>
       <c r="T37">
-        <v>0.1300799258917867</v>
+        <v>0.1321476605120518</v>
       </c>
     </row>
   </sheetData>
